--- a/1des/sop/aula06/exercicios-funcoes.xlsx
+++ b/1des/sop/aula06/exercicios-funcoes.xlsx
@@ -1071,7 +1071,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,6 +1234,13 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,9 +1677,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1688,7 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
@@ -1714,14 +1721,14 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
@@ -1751,13 +1758,13 @@
       <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="78">
         <v>5</v>
       </c>
       <c r="C8" s="26">
         <v>24</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="78"/>
       <c r="F8" s="23">
         <v>0.05</v>
       </c>
@@ -1766,115 +1773,119 @@
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="79">
         <v>4</v>
       </c>
       <c r="C9" s="24">
         <v>31</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="79">
         <v>3</v>
       </c>
       <c r="C10" s="24">
         <v>25</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="79">
         <v>6</v>
       </c>
       <c r="C11" s="24">
         <v>28</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="79">
         <v>7</v>
       </c>
       <c r="C12" s="24">
         <v>37</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="79">
         <v>8</v>
       </c>
       <c r="C13" s="24">
         <v>21</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="79">
         <v>5</v>
       </c>
       <c r="C14" s="24">
         <v>26</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="79">
         <v>4</v>
       </c>
       <c r="C15" s="24">
         <v>35</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="79">
         <v>3</v>
       </c>
       <c r="C16" s="24">
         <v>31</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="79">
         <v>9</v>
       </c>
       <c r="C17" s="24">
         <v>20</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="78"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1882,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2713,18 +2724,18 @@
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="80"/>
+      <c r="B9" s="83"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
+      <c r="B10" s="83"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
+      <c r="B11" s="83"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
@@ -2801,10 +2812,10 @@
     </row>
     <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="42" t="s">
@@ -2890,12 +2901,12 @@
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="82" t="s">
+      <c r="M6" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="43"/>
     </row>
@@ -3158,12 +3169,12 @@
     <row r="16" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="40"/>
       <c r="H16" s="61" t="s">
         <v>69</v>
